--- a/IFIC/IFIC.Runner/Mappings/Error-Element-Mapping.xlsx
+++ b/IFIC/IFIC.Runner/Mappings/Error-Element-Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sfcla\Desktop\LTCF-Stuff\Sample-Output-Darryl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\IFIC-XML\IFIC\IFIC.Runner\Mappings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EE68B0-C04D-4AB1-8785-B5B8403064B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E279DD9-77E7-4419-A91E-C69D2EAE0E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="585" windowWidth="25965" windowHeight="14250" activeTab="1" xr2:uid="{355AB25E-4D09-4E73-9CC8-BED711E20C03}"/>
+    <workbookView xWindow="5715" yWindow="8310" windowWidth="23040" windowHeight="13605" activeTab="1" xr2:uid="{355AB25E-4D09-4E73-9CC8-BED711E20C03}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="739">
   <si>
     <t>elementName</t>
   </si>
@@ -2175,9 +2175,6 @@
     <t>not captured in Clarity assessment</t>
   </si>
   <si>
-    <t>New "Disease Diagnosis" question coming April 2026</t>
-  </si>
-  <si>
     <t>O</t>
   </si>
   <si>
@@ -2197,13 +2194,95 @@
   </si>
   <si>
     <t>called S2 in CIHI's world, but called R7 in database</t>
+  </si>
+  <si>
+    <t>Arthritis (Osteo, Rheumatoid)</t>
+  </si>
+  <si>
+    <t>Seizure disorders or epilepsy</t>
+  </si>
+  <si>
+    <t>Acquired Brain Injury (ABI)</t>
+  </si>
+  <si>
+    <t>Motor neuron disease/ALS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerebral Palsy </t>
+  </si>
+  <si>
+    <t>Huntington's Disease</t>
+  </si>
+  <si>
+    <t>Down syndrome</t>
+  </si>
+  <si>
+    <r>
+      <t>Autism spectrum disorder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Atrial fibrillation</t>
+  </si>
+  <si>
+    <t>Peripheral vascular disease (PVD)</t>
+  </si>
+  <si>
+    <r>
+      <t>Post-traumatic stress disorder (PTSD)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Sepsis during last 30 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chronic hepatitis (e.g., Hepatitis B, C) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clostridium difficile (C. diff)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuberculosis (TB) </t>
+  </si>
+  <si>
+    <t>HIV/AIDS</t>
+  </si>
+  <si>
+    <t>Respiratory infection during last 90 days</t>
+  </si>
+  <si>
+    <t>Chronic kidney disease (CKD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other intellectual disability (organic, non-organic, or cause unknown) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multidrug resistant organism (MDRO) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2233,6 +2312,18 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2254,7 +2345,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2262,17 +2353,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2618,7 +2730,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -2776,8 +2888,8 @@
   <dimension ref="A1:D338"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D338" sqref="D338"/>
+      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F171" sqref="F171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4489,8 +4601,8 @@
       <c r="C154" t="s">
         <v>662</v>
       </c>
-      <c r="D154" t="s">
-        <v>712</v>
+      <c r="D154" s="6" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -4503,8 +4615,8 @@
       <c r="C155" t="s">
         <v>662</v>
       </c>
-      <c r="D155" t="s">
-        <v>712</v>
+      <c r="D155" s="6" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -4517,8 +4629,8 @@
       <c r="C156" t="s">
         <v>662</v>
       </c>
-      <c r="D156" t="s">
-        <v>712</v>
+      <c r="D156" s="6" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -4531,8 +4643,8 @@
       <c r="C157" t="s">
         <v>662</v>
       </c>
-      <c r="D157" t="s">
-        <v>712</v>
+      <c r="D157" s="7" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -4545,8 +4657,8 @@
       <c r="C158" t="s">
         <v>662</v>
       </c>
-      <c r="D158" t="s">
-        <v>712</v>
+      <c r="D158" s="7" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -4559,8 +4671,8 @@
       <c r="C159" t="s">
         <v>662</v>
       </c>
-      <c r="D159" t="s">
-        <v>712</v>
+      <c r="D159" s="7" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -4573,8 +4685,8 @@
       <c r="C160" t="s">
         <v>662</v>
       </c>
-      <c r="D160" t="s">
-        <v>712</v>
+      <c r="D160" s="6" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -4587,8 +4699,8 @@
       <c r="C161" t="s">
         <v>662</v>
       </c>
-      <c r="D161" t="s">
-        <v>712</v>
+      <c r="D161" s="6" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -4601,8 +4713,8 @@
       <c r="C162" t="s">
         <v>662</v>
       </c>
-      <c r="D162" t="s">
-        <v>712</v>
+      <c r="D162" s="7" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -4615,8 +4727,8 @@
       <c r="C163" t="s">
         <v>662</v>
       </c>
-      <c r="D163" t="s">
-        <v>712</v>
+      <c r="D163" s="6" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -4629,8 +4741,8 @@
       <c r="C164" t="s">
         <v>662</v>
       </c>
-      <c r="D164" t="s">
-        <v>712</v>
+      <c r="D164" s="6" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -4643,8 +4755,8 @@
       <c r="C165" t="s">
         <v>662</v>
       </c>
-      <c r="D165" t="s">
-        <v>712</v>
+      <c r="D165" s="6" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -4657,8 +4769,8 @@
       <c r="C166" t="s">
         <v>662</v>
       </c>
-      <c r="D166" t="s">
-        <v>712</v>
+      <c r="D166" s="6" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -4671,8 +4783,8 @@
       <c r="C167" t="s">
         <v>662</v>
       </c>
-      <c r="D167" t="s">
-        <v>712</v>
+      <c r="D167" s="6" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -4685,8 +4797,8 @@
       <c r="C168" t="s">
         <v>662</v>
       </c>
-      <c r="D168" t="s">
-        <v>712</v>
+      <c r="D168" s="6" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -4699,8 +4811,8 @@
       <c r="C169" t="s">
         <v>662</v>
       </c>
-      <c r="D169" t="s">
-        <v>712</v>
+      <c r="D169" s="6" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -4713,8 +4825,8 @@
       <c r="C170" t="s">
         <v>662</v>
       </c>
-      <c r="D170" t="s">
-        <v>712</v>
+      <c r="D170" s="6" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -4727,8 +4839,8 @@
       <c r="C171" t="s">
         <v>662</v>
       </c>
-      <c r="D171" t="s">
-        <v>712</v>
+      <c r="D171" s="6" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -4741,8 +4853,8 @@
       <c r="C172" t="s">
         <v>662</v>
       </c>
-      <c r="D172" t="s">
-        <v>712</v>
+      <c r="D172" s="7" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -4755,8 +4867,8 @@
       <c r="C173" t="s">
         <v>662</v>
       </c>
-      <c r="D173" t="s">
-        <v>712</v>
+      <c r="D173" s="6" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -5902,7 +6014,7 @@
         <v>570</v>
       </c>
       <c r="C275" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -5913,7 +6025,7 @@
         <v>571</v>
       </c>
       <c r="C276" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -5924,7 +6036,7 @@
         <v>572</v>
       </c>
       <c r="C277" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -5935,7 +6047,7 @@
         <v>573</v>
       </c>
       <c r="C278" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -5946,7 +6058,7 @@
         <v>574</v>
       </c>
       <c r="C279" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -5957,7 +6069,7 @@
         <v>575</v>
       </c>
       <c r="C280" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -5968,7 +6080,7 @@
         <v>576</v>
       </c>
       <c r="C281" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -5979,7 +6091,7 @@
         <v>577</v>
       </c>
       <c r="C282" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -5990,7 +6102,7 @@
         <v>578</v>
       </c>
       <c r="C283" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -6001,7 +6113,7 @@
         <v>579</v>
       </c>
       <c r="C284" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -6012,7 +6124,7 @@
         <v>580</v>
       </c>
       <c r="C285" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -6023,7 +6135,7 @@
         <v>581</v>
       </c>
       <c r="C286" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -6034,7 +6146,7 @@
         <v>582</v>
       </c>
       <c r="C287" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -6045,7 +6157,7 @@
         <v>583</v>
       </c>
       <c r="C288" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -6056,7 +6168,7 @@
         <v>584</v>
       </c>
       <c r="C289" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -6067,7 +6179,7 @@
         <v>585</v>
       </c>
       <c r="C290" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -6078,7 +6190,7 @@
         <v>586</v>
       </c>
       <c r="C291" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -6089,7 +6201,7 @@
         <v>587</v>
       </c>
       <c r="C292" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -6100,7 +6212,7 @@
         <v>588</v>
       </c>
       <c r="C293" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -6111,7 +6223,7 @@
         <v>589</v>
       </c>
       <c r="C294" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -6122,7 +6234,7 @@
         <v>590</v>
       </c>
       <c r="C295" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -6133,7 +6245,7 @@
         <v>591</v>
       </c>
       <c r="C296" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -6144,7 +6256,7 @@
         <v>612</v>
       </c>
       <c r="C297" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -6155,7 +6267,7 @@
         <v>613</v>
       </c>
       <c r="C298" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -6166,7 +6278,7 @@
         <v>614</v>
       </c>
       <c r="C299" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -6177,7 +6289,7 @@
         <v>615</v>
       </c>
       <c r="C300" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -6188,7 +6300,7 @@
         <v>616</v>
       </c>
       <c r="C301" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -6199,7 +6311,7 @@
         <v>617</v>
       </c>
       <c r="C302" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -6210,7 +6322,7 @@
         <v>618</v>
       </c>
       <c r="C303" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -6221,7 +6333,7 @@
         <v>619</v>
       </c>
       <c r="C304" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -6232,7 +6344,7 @@
         <v>620</v>
       </c>
       <c r="C305" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -6243,7 +6355,7 @@
         <v>621</v>
       </c>
       <c r="C306" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -6254,7 +6366,7 @@
         <v>622</v>
       </c>
       <c r="C307" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -6265,7 +6377,7 @@
         <v>623</v>
       </c>
       <c r="C308" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -6276,7 +6388,7 @@
         <v>624</v>
       </c>
       <c r="C309" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -6287,7 +6399,7 @@
         <v>625</v>
       </c>
       <c r="C310" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -6298,7 +6410,7 @@
         <v>626</v>
       </c>
       <c r="C311" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -6309,7 +6421,7 @@
         <v>627</v>
       </c>
       <c r="C312" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -6320,7 +6432,7 @@
         <v>628</v>
       </c>
       <c r="C313" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -6331,7 +6443,7 @@
         <v>629</v>
       </c>
       <c r="C314" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -6342,7 +6454,7 @@
         <v>630</v>
       </c>
       <c r="C315" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -6353,7 +6465,7 @@
         <v>631</v>
       </c>
       <c r="C316" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -6364,7 +6476,7 @@
         <v>632</v>
       </c>
       <c r="C317" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -6375,7 +6487,7 @@
         <v>592</v>
       </c>
       <c r="C318" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -6386,7 +6498,7 @@
         <v>593</v>
       </c>
       <c r="C319" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -6397,7 +6509,7 @@
         <v>597</v>
       </c>
       <c r="C320" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -6408,7 +6520,7 @@
         <v>598</v>
       </c>
       <c r="C321" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -6419,7 +6531,7 @@
         <v>594</v>
       </c>
       <c r="C322" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -6430,7 +6542,7 @@
         <v>595</v>
       </c>
       <c r="C323" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -6441,7 +6553,7 @@
         <v>596</v>
       </c>
       <c r="C324" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -6452,7 +6564,7 @@
         <v>599</v>
       </c>
       <c r="C325" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -6463,7 +6575,7 @@
         <v>600</v>
       </c>
       <c r="C326" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -6474,7 +6586,7 @@
         <v>601</v>
       </c>
       <c r="C327" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -6485,7 +6597,7 @@
         <v>602</v>
       </c>
       <c r="C328" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -6496,7 +6608,7 @@
         <v>603</v>
       </c>
       <c r="C329" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -6507,7 +6619,7 @@
         <v>604</v>
       </c>
       <c r="C330" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -6518,7 +6630,7 @@
         <v>605</v>
       </c>
       <c r="C331" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -6529,7 +6641,7 @@
         <v>606</v>
       </c>
       <c r="C332" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -6540,7 +6652,7 @@
         <v>607</v>
       </c>
       <c r="C333" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -6551,7 +6663,7 @@
         <v>608</v>
       </c>
       <c r="C334" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -6562,7 +6674,7 @@
         <v>610</v>
       </c>
       <c r="C335" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -6573,7 +6685,7 @@
         <v>609</v>
       </c>
       <c r="C336" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -6584,7 +6696,7 @@
         <v>611</v>
       </c>
       <c r="C337" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -6592,13 +6704,13 @@
         <v>317</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C338" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D338" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>
